--- a/people_counting_analysis.xlsx
+++ b/people_counting_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C448"/>
+  <dimension ref="A1:C698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,7 +1071,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1731,7 +1731,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -1742,7 +1742,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -1775,7 +1775,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -1797,7 +1797,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -1808,7 +1808,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -1830,7 +1830,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -1852,7 +1852,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -1885,7 +1885,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -1907,7 +1907,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -1918,7 +1918,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>1</v>
@@ -1940,10 +1940,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C394" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C413" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C442" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,2760 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0</v>
+      </c>
+      <c r="C479" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+      <c r="C524" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+      <c r="C525" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+      <c r="C526" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+      <c r="C527" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+      <c r="C528" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+      <c r="C529" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+      <c r="C530" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+      <c r="C531" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+      <c r="C532" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+      <c r="C533" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+      <c r="C534" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+      <c r="C535" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+      <c r="C536" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+      <c r="C537" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+      <c r="C538" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+      <c r="C539" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+      <c r="C540" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+      <c r="C541" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+      <c r="C542" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+      <c r="C543" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+      <c r="C544" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+      <c r="C545" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+      <c r="C546" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+      <c r="C547" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+      <c r="C548" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+      <c r="C549" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+      <c r="C550" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+      <c r="C551" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="C552" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+      <c r="C553" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+      <c r="C554" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+      <c r="C555" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+      <c r="C556" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+      <c r="C557" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="C558" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+      <c r="C559" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+      <c r="C560" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+      <c r="C561" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+      <c r="C562" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+      <c r="C563" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+      <c r="C564" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+      <c r="C565" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+      <c r="C566" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+      <c r="C567" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+      <c r="C568" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+      <c r="C569" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+      <c r="C570" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+      <c r="C571" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+      <c r="C572" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+      <c r="C573" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+      <c r="C574" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+      <c r="C575" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+      <c r="C576" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+      <c r="C577" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+      <c r="C578" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+      <c r="C579" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+      <c r="C580" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+      <c r="C581" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+      <c r="C582" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+      <c r="C583" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+      <c r="C584" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+      <c r="C585" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+      <c r="C586" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+      <c r="C587" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+      <c r="C588" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+      <c r="C589" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+      <c r="C590" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+      <c r="C591" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+      <c r="C592" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+      <c r="C593" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+      <c r="C594" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+      <c r="C595" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+      <c r="C596" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+      <c r="C597" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+      <c r="C598" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+      <c r="C599" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+      <c r="C600" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+      <c r="C601" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+      <c r="C602" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+      <c r="C603" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+      <c r="C604" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+      <c r="C605" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+      <c r="C606" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+      <c r="C607" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+      <c r="C608" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+      <c r="C609" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+      <c r="C610" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+      <c r="C611" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+      <c r="C612" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+      <c r="C613" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+      <c r="C614" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+      <c r="C615" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+      <c r="C616" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+      <c r="C617" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+      <c r="C618" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+      <c r="C619" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+      <c r="C620" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+      <c r="C621" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+      <c r="C622" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+      <c r="C623" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+      <c r="C624" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+      <c r="C625" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+      <c r="C626" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+      <c r="C627" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+      <c r="C628" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+      <c r="C629" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+      <c r="C630" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+      <c r="C631" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+      <c r="C632" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+      <c r="C633" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+      <c r="C634" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+      <c r="C635" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+      <c r="C636" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+      <c r="C637" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+      <c r="C638" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+      <c r="C639" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+      <c r="C640" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+      <c r="C641" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+      <c r="C642" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+      <c r="C643" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+      <c r="C644" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+      <c r="C645" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+      <c r="C646" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+      <c r="C647" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+      <c r="C648" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+      <c r="C649" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+      <c r="C650" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+      <c r="C651" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+      <c r="C652" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+      <c r="C653" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+      <c r="C654" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+      <c r="C655" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+      <c r="C656" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+      <c r="C657" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+      <c r="C658" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
+      </c>
+      <c r="C659" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1</v>
+      </c>
+      <c r="C660" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1</v>
+      </c>
+      <c r="C661" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>1</v>
+      </c>
+      <c r="C662" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1</v>
+      </c>
+      <c r="C663" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1</v>
+      </c>
+      <c r="C664" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>1</v>
+      </c>
+      <c r="C665" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>1</v>
+      </c>
+      <c r="C666" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>1</v>
+      </c>
+      <c r="C667" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1</v>
+      </c>
+      <c r="C668" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1</v>
+      </c>
+      <c r="C669" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1</v>
+      </c>
+      <c r="C670" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1</v>
+      </c>
+      <c r="C671" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1</v>
+      </c>
+      <c r="C672" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1</v>
+      </c>
+      <c r="C673" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1</v>
+      </c>
+      <c r="C674" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1</v>
+      </c>
+      <c r="C675" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1</v>
+      </c>
+      <c r="C676" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>1</v>
+      </c>
+      <c r="C677" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1</v>
+      </c>
+      <c r="C678" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1</v>
+      </c>
+      <c r="C679" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>1</v>
+      </c>
+      <c r="C680" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1</v>
+      </c>
+      <c r="C681" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1</v>
+      </c>
+      <c r="C682" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>1</v>
+      </c>
+      <c r="C683" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>1</v>
+      </c>
+      <c r="C684" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1</v>
+      </c>
+      <c r="C685" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>1</v>
+      </c>
+      <c r="C686" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>1</v>
+      </c>
+      <c r="C687" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1</v>
+      </c>
+      <c r="C688" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1</v>
+      </c>
+      <c r="C689" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1</v>
+      </c>
+      <c r="C690" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>1</v>
+      </c>
+      <c r="C691" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1</v>
+      </c>
+      <c r="C692" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>1</v>
+      </c>
+      <c r="C693" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1</v>
+      </c>
+      <c r="C694" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1</v>
+      </c>
+      <c r="C695" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1</v>
+      </c>
+      <c r="C696" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1</v>
+      </c>
+      <c r="C697" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1</v>
+      </c>
+      <c r="C698" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/people_counting_analysis.xlsx
+++ b/people_counting_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C698"/>
+  <dimension ref="A1:D698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Down Count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frame Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -460,6 +465,9 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -471,6 +479,9 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -480,6 +491,9 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -493,6 +507,9 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -502,6 +519,9 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,6 +535,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -524,6 +547,9 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,6 +563,9 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -548,6 +577,9 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -559,6 +591,9 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -570,6 +605,9 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -581,6 +619,9 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -592,6 +633,9 @@
       <c r="C14" t="n">
         <v>0</v>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -603,6 +647,9 @@
       <c r="C15" t="n">
         <v>0</v>
       </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -614,6 +661,9 @@
       <c r="C16" t="n">
         <v>0</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -625,6 +675,9 @@
       <c r="C17" t="n">
         <v>0</v>
       </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -636,6 +689,9 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -647,6 +703,9 @@
       <c r="C19" t="n">
         <v>0</v>
       </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -658,6 +717,9 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -669,6 +731,9 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -680,6 +745,9 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -691,6 +759,9 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -702,6 +773,9 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -713,6 +787,9 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -724,6 +801,9 @@
       <c r="C26" t="n">
         <v>0</v>
       </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -735,6 +815,9 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -746,6 +829,9 @@
       <c r="C28" t="n">
         <v>0</v>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -757,6 +843,9 @@
       <c r="C29" t="n">
         <v>0</v>
       </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -768,6 +857,9 @@
       <c r="C30" t="n">
         <v>0</v>
       </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -779,6 +871,9 @@
       <c r="C31" t="n">
         <v>0</v>
       </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -790,6 +885,9 @@
       <c r="C32" t="n">
         <v>0</v>
       </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -801,6 +899,9 @@
       <c r="C33" t="n">
         <v>0</v>
       </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -812,6 +913,9 @@
       <c r="C34" t="n">
         <v>0</v>
       </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -823,6 +927,9 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -834,6 +941,9 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -845,6 +955,9 @@
       <c r="C37" t="n">
         <v>0</v>
       </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -856,6 +969,9 @@
       <c r="C38" t="n">
         <v>0</v>
       </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -867,6 +983,9 @@
       <c r="C39" t="n">
         <v>0</v>
       </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -878,6 +997,9 @@
       <c r="C40" t="n">
         <v>0</v>
       </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -889,6 +1011,9 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -900,6 +1025,9 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -911,6 +1039,9 @@
       <c r="C43" t="n">
         <v>0</v>
       </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -922,6 +1053,9 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -933,6 +1067,9 @@
       <c r="C45" t="n">
         <v>0</v>
       </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -944,6 +1081,9 @@
       <c r="C46" t="n">
         <v>0</v>
       </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -955,6 +1095,9 @@
       <c r="C47" t="n">
         <v>0</v>
       </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -966,6 +1109,9 @@
       <c r="C48" t="n">
         <v>0</v>
       </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -977,6 +1123,9 @@
       <c r="C49" t="n">
         <v>0</v>
       </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -988,6 +1137,9 @@
       <c r="C50" t="n">
         <v>0</v>
       </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -999,6 +1151,9 @@
       <c r="C51" t="n">
         <v>0</v>
       </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1010,6 +1165,9 @@
       <c r="C52" t="n">
         <v>0</v>
       </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1021,6 +1179,9 @@
       <c r="C53" t="n">
         <v>0</v>
       </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1032,6 +1193,9 @@
       <c r="C54" t="n">
         <v>0</v>
       </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1043,6 +1207,9 @@
       <c r="C55" t="n">
         <v>0</v>
       </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1054,6 +1221,9 @@
       <c r="C56" t="n">
         <v>0</v>
       </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1065,6 +1235,9 @@
       <c r="C57" t="n">
         <v>0</v>
       </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1076,6 +1249,9 @@
       <c r="C58" t="n">
         <v>0</v>
       </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1087,6 +1263,9 @@
       <c r="C59" t="n">
         <v>0</v>
       </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1098,6 +1277,9 @@
       <c r="C60" t="n">
         <v>0</v>
       </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1109,6 +1291,9 @@
       <c r="C61" t="n">
         <v>0</v>
       </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1120,6 +1305,9 @@
       <c r="C62" t="n">
         <v>0</v>
       </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1131,6 +1319,9 @@
       <c r="C63" t="n">
         <v>0</v>
       </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1142,6 +1333,9 @@
       <c r="C64" t="n">
         <v>1</v>
       </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1153,6 +1347,9 @@
       <c r="C65" t="n">
         <v>1</v>
       </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1164,6 +1361,9 @@
       <c r="C66" t="n">
         <v>1</v>
       </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1175,6 +1375,9 @@
       <c r="C67" t="n">
         <v>1</v>
       </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1186,6 +1389,9 @@
       <c r="C68" t="n">
         <v>1</v>
       </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1197,6 +1403,9 @@
       <c r="C69" t="n">
         <v>1</v>
       </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1208,6 +1417,9 @@
       <c r="C70" t="n">
         <v>1</v>
       </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1219,6 +1431,9 @@
       <c r="C71" t="n">
         <v>1</v>
       </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1230,6 +1445,9 @@
       <c r="C72" t="n">
         <v>1</v>
       </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1241,6 +1459,9 @@
       <c r="C73" t="n">
         <v>1</v>
       </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1252,6 +1473,9 @@
       <c r="C74" t="n">
         <v>1</v>
       </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1263,6 +1487,9 @@
       <c r="C75" t="n">
         <v>1</v>
       </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1274,6 +1501,9 @@
       <c r="C76" t="n">
         <v>1</v>
       </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1285,6 +1515,9 @@
       <c r="C77" t="n">
         <v>1</v>
       </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1296,6 +1529,9 @@
       <c r="C78" t="n">
         <v>1</v>
       </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1307,6 +1543,9 @@
       <c r="C79" t="n">
         <v>1</v>
       </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1318,6 +1557,9 @@
       <c r="C80" t="n">
         <v>1</v>
       </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1329,6 +1571,9 @@
       <c r="C81" t="n">
         <v>1</v>
       </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1340,6 +1585,9 @@
       <c r="C82" t="n">
         <v>1</v>
       </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1351,6 +1599,9 @@
       <c r="C83" t="n">
         <v>1</v>
       </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1362,6 +1613,9 @@
       <c r="C84" t="n">
         <v>1</v>
       </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1373,6 +1627,9 @@
       <c r="C85" t="n">
         <v>1</v>
       </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1384,6 +1641,9 @@
       <c r="C86" t="n">
         <v>1</v>
       </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1395,6 +1655,9 @@
       <c r="C87" t="n">
         <v>1</v>
       </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1406,6 +1669,9 @@
       <c r="C88" t="n">
         <v>1</v>
       </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1417,6 +1683,9 @@
       <c r="C89" t="n">
         <v>1</v>
       </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1428,6 +1697,9 @@
       <c r="C90" t="n">
         <v>1</v>
       </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1439,6 +1711,9 @@
       <c r="C91" t="n">
         <v>1</v>
       </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1450,6 +1725,9 @@
       <c r="C92" t="n">
         <v>1</v>
       </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1461,6 +1739,9 @@
       <c r="C93" t="n">
         <v>1</v>
       </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1472,6 +1753,9 @@
       <c r="C94" t="n">
         <v>1</v>
       </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1483,6 +1767,9 @@
       <c r="C95" t="n">
         <v>1</v>
       </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1494,6 +1781,9 @@
       <c r="C96" t="n">
         <v>1</v>
       </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -1505,6 +1795,9 @@
       <c r="C97" t="n">
         <v>1</v>
       </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1516,6 +1809,9 @@
       <c r="C98" t="n">
         <v>1</v>
       </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -1527,6 +1823,9 @@
       <c r="C99" t="n">
         <v>1</v>
       </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -1538,6 +1837,9 @@
       <c r="C100" t="n">
         <v>1</v>
       </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1549,6 +1851,9 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -1560,6 +1865,9 @@
       <c r="C102" t="n">
         <v>1</v>
       </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -1571,6 +1879,9 @@
       <c r="C103" t="n">
         <v>1</v>
       </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1582,6 +1893,9 @@
       <c r="C104" t="n">
         <v>1</v>
       </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -1593,6 +1907,9 @@
       <c r="C105" t="n">
         <v>1</v>
       </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -1604,6 +1921,9 @@
       <c r="C106" t="n">
         <v>1</v>
       </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1615,6 +1935,9 @@
       <c r="C107" t="n">
         <v>1</v>
       </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -1626,6 +1949,9 @@
       <c r="C108" t="n">
         <v>1</v>
       </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -1637,6 +1963,9 @@
       <c r="C109" t="n">
         <v>1</v>
       </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -1648,6 +1977,9 @@
       <c r="C110" t="n">
         <v>1</v>
       </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -1659,6 +1991,9 @@
       <c r="C111" t="n">
         <v>1</v>
       </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -1670,6 +2005,9 @@
       <c r="C112" t="n">
         <v>1</v>
       </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1681,6 +2019,9 @@
       <c r="C113" t="n">
         <v>1</v>
       </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1692,6 +2033,9 @@
       <c r="C114" t="n">
         <v>1</v>
       </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -1703,6 +2047,9 @@
       <c r="C115" t="n">
         <v>1</v>
       </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -1714,6 +2061,9 @@
       <c r="C116" t="n">
         <v>1</v>
       </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -1725,6 +2075,9 @@
       <c r="C117" t="n">
         <v>1</v>
       </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -1736,6 +2089,9 @@
       <c r="C118" t="n">
         <v>1</v>
       </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -1747,6 +2103,9 @@
       <c r="C119" t="n">
         <v>1</v>
       </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -1758,6 +2117,9 @@
       <c r="C120" t="n">
         <v>1</v>
       </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -1769,6 +2131,9 @@
       <c r="C121" t="n">
         <v>1</v>
       </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -1780,6 +2145,9 @@
       <c r="C122" t="n">
         <v>1</v>
       </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -1791,6 +2159,9 @@
       <c r="C123" t="n">
         <v>1</v>
       </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -1802,6 +2173,9 @@
       <c r="C124" t="n">
         <v>1</v>
       </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -1813,6 +2187,9 @@
       <c r="C125" t="n">
         <v>1</v>
       </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1824,6 +2201,9 @@
       <c r="C126" t="n">
         <v>1</v>
       </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -1835,6 +2215,9 @@
       <c r="C127" t="n">
         <v>1</v>
       </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -1846,6 +2229,9 @@
       <c r="C128" t="n">
         <v>1</v>
       </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -1857,6 +2243,9 @@
       <c r="C129" t="n">
         <v>1</v>
       </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -1868,6 +2257,9 @@
       <c r="C130" t="n">
         <v>1</v>
       </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -1879,6 +2271,9 @@
       <c r="C131" t="n">
         <v>1</v>
       </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -1890,6 +2285,9 @@
       <c r="C132" t="n">
         <v>1</v>
       </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -1901,6 +2299,9 @@
       <c r="C133" t="n">
         <v>1</v>
       </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -1912,6 +2313,9 @@
       <c r="C134" t="n">
         <v>1</v>
       </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -1923,6 +2327,9 @@
       <c r="C135" t="n">
         <v>1</v>
       </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -1934,6 +2341,9 @@
       <c r="C136" t="n">
         <v>1</v>
       </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -1945,6 +2355,9 @@
       <c r="C137" t="n">
         <v>1</v>
       </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -1956,6 +2369,9 @@
       <c r="C138" t="n">
         <v>1</v>
       </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -1967,6 +2383,9 @@
       <c r="C139" t="n">
         <v>1</v>
       </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -1978,6 +2397,9 @@
       <c r="C140" t="n">
         <v>1</v>
       </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -1989,6 +2411,9 @@
       <c r="C141" t="n">
         <v>1</v>
       </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -2000,6 +2425,9 @@
       <c r="C142" t="n">
         <v>1</v>
       </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -2011,6 +2439,9 @@
       <c r="C143" t="n">
         <v>1</v>
       </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -2022,6 +2453,9 @@
       <c r="C144" t="n">
         <v>1</v>
       </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -2033,6 +2467,9 @@
       <c r="C145" t="n">
         <v>1</v>
       </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -2044,6 +2481,9 @@
       <c r="C146" t="n">
         <v>1</v>
       </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -2055,6 +2495,9 @@
       <c r="C147" t="n">
         <v>1</v>
       </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -2066,6 +2509,9 @@
       <c r="C148" t="n">
         <v>1</v>
       </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -2077,6 +2523,9 @@
       <c r="C149" t="n">
         <v>1</v>
       </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -2088,6 +2537,9 @@
       <c r="C150" t="n">
         <v>1</v>
       </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -2099,6 +2551,9 @@
       <c r="C151" t="n">
         <v>1</v>
       </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -2110,6 +2565,9 @@
       <c r="C152" t="n">
         <v>1</v>
       </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -2121,6 +2579,9 @@
       <c r="C153" t="n">
         <v>1</v>
       </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -2132,6 +2593,9 @@
       <c r="C154" t="n">
         <v>1</v>
       </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -2143,6 +2607,9 @@
       <c r="C155" t="n">
         <v>1</v>
       </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -2154,6 +2621,9 @@
       <c r="C156" t="n">
         <v>1</v>
       </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -2165,6 +2635,9 @@
       <c r="C157" t="n">
         <v>1</v>
       </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -2176,6 +2649,9 @@
       <c r="C158" t="n">
         <v>1</v>
       </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -2187,6 +2663,9 @@
       <c r="C159" t="n">
         <v>1</v>
       </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -2198,6 +2677,9 @@
       <c r="C160" t="n">
         <v>1</v>
       </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -2209,6 +2691,9 @@
       <c r="C161" t="n">
         <v>1</v>
       </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -2220,6 +2705,9 @@
       <c r="C162" t="n">
         <v>1</v>
       </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -2231,6 +2719,9 @@
       <c r="C163" t="n">
         <v>1</v>
       </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -2242,6 +2733,9 @@
       <c r="C164" t="n">
         <v>1</v>
       </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -2253,6 +2747,9 @@
       <c r="C165" t="n">
         <v>1</v>
       </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -2264,6 +2761,9 @@
       <c r="C166" t="n">
         <v>1</v>
       </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -2275,6 +2775,9 @@
       <c r="C167" t="n">
         <v>1</v>
       </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -2286,6 +2789,9 @@
       <c r="C168" t="n">
         <v>1</v>
       </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -2297,6 +2803,9 @@
       <c r="C169" t="n">
         <v>1</v>
       </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -2308,6 +2817,9 @@
       <c r="C170" t="n">
         <v>1</v>
       </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -2319,6 +2831,9 @@
       <c r="C171" t="n">
         <v>1</v>
       </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -2330,6 +2845,9 @@
       <c r="C172" t="n">
         <v>1</v>
       </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -2341,6 +2859,9 @@
       <c r="C173" t="n">
         <v>1</v>
       </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -2352,6 +2873,9 @@
       <c r="C174" t="n">
         <v>1</v>
       </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -2363,6 +2887,9 @@
       <c r="C175" t="n">
         <v>1</v>
       </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -2374,6 +2901,9 @@
       <c r="C176" t="n">
         <v>1</v>
       </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -2385,6 +2915,9 @@
       <c r="C177" t="n">
         <v>1</v>
       </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -2396,6 +2929,9 @@
       <c r="C178" t="n">
         <v>1</v>
       </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -2407,6 +2943,9 @@
       <c r="C179" t="n">
         <v>1</v>
       </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -2418,6 +2957,9 @@
       <c r="C180" t="n">
         <v>1</v>
       </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -2429,6 +2971,9 @@
       <c r="C181" t="n">
         <v>1</v>
       </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -2440,6 +2985,9 @@
       <c r="C182" t="n">
         <v>1</v>
       </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -2451,6 +2999,9 @@
       <c r="C183" t="n">
         <v>1</v>
       </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -2462,6 +3013,9 @@
       <c r="C184" t="n">
         <v>1</v>
       </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -2473,6 +3027,9 @@
       <c r="C185" t="n">
         <v>1</v>
       </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -2484,6 +3041,9 @@
       <c r="C186" t="n">
         <v>1</v>
       </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -2495,6 +3055,9 @@
       <c r="C187" t="n">
         <v>1</v>
       </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -2506,6 +3069,9 @@
       <c r="C188" t="n">
         <v>1</v>
       </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -2517,6 +3083,9 @@
       <c r="C189" t="n">
         <v>1</v>
       </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -2528,6 +3097,9 @@
       <c r="C190" t="n">
         <v>1</v>
       </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -2539,6 +3111,9 @@
       <c r="C191" t="n">
         <v>1</v>
       </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -2550,6 +3125,9 @@
       <c r="C192" t="n">
         <v>1</v>
       </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -2561,6 +3139,9 @@
       <c r="C193" t="n">
         <v>1</v>
       </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -2572,6 +3153,9 @@
       <c r="C194" t="n">
         <v>1</v>
       </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -2583,6 +3167,9 @@
       <c r="C195" t="n">
         <v>1</v>
       </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -2594,6 +3181,9 @@
       <c r="C196" t="n">
         <v>1</v>
       </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -2605,6 +3195,9 @@
       <c r="C197" t="n">
         <v>1</v>
       </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -2616,6 +3209,9 @@
       <c r="C198" t="n">
         <v>1</v>
       </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -2627,6 +3223,9 @@
       <c r="C199" t="n">
         <v>1</v>
       </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -2638,6 +3237,9 @@
       <c r="C200" t="n">
         <v>1</v>
       </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -2649,6 +3251,9 @@
       <c r="C201" t="n">
         <v>1</v>
       </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -2660,6 +3265,9 @@
       <c r="C202" t="n">
         <v>1</v>
       </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -2671,6 +3279,9 @@
       <c r="C203" t="n">
         <v>1</v>
       </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -2682,6 +3293,9 @@
       <c r="C204" t="n">
         <v>1</v>
       </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -2693,6 +3307,9 @@
       <c r="C205" t="n">
         <v>1</v>
       </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -2704,6 +3321,9 @@
       <c r="C206" t="n">
         <v>1</v>
       </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -2715,6 +3335,9 @@
       <c r="C207" t="n">
         <v>1</v>
       </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -2726,6 +3349,9 @@
       <c r="C208" t="n">
         <v>1</v>
       </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -2737,6 +3363,9 @@
       <c r="C209" t="n">
         <v>1</v>
       </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -2748,6 +3377,9 @@
       <c r="C210" t="n">
         <v>1</v>
       </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -2759,6 +3391,9 @@
       <c r="C211" t="n">
         <v>1</v>
       </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -2770,6 +3405,9 @@
       <c r="C212" t="n">
         <v>1</v>
       </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -2781,6 +3419,9 @@
       <c r="C213" t="n">
         <v>1</v>
       </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -2792,6 +3433,9 @@
       <c r="C214" t="n">
         <v>1</v>
       </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -2803,6 +3447,9 @@
       <c r="C215" t="n">
         <v>1</v>
       </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -2814,6 +3461,9 @@
       <c r="C216" t="n">
         <v>1</v>
       </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -2825,6 +3475,9 @@
       <c r="C217" t="n">
         <v>1</v>
       </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -2836,6 +3489,9 @@
       <c r="C218" t="n">
         <v>1</v>
       </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -2847,6 +3503,9 @@
       <c r="C219" t="n">
         <v>1</v>
       </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -2858,6 +3517,9 @@
       <c r="C220" t="n">
         <v>1</v>
       </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -2869,6 +3531,9 @@
       <c r="C221" t="n">
         <v>1</v>
       </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -2880,6 +3545,9 @@
       <c r="C222" t="n">
         <v>1</v>
       </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -2891,6 +3559,9 @@
       <c r="C223" t="n">
         <v>1</v>
       </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -2902,6 +3573,9 @@
       <c r="C224" t="n">
         <v>1</v>
       </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -2913,6 +3587,9 @@
       <c r="C225" t="n">
         <v>1</v>
       </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -2924,6 +3601,9 @@
       <c r="C226" t="n">
         <v>1</v>
       </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -2935,6 +3615,9 @@
       <c r="C227" t="n">
         <v>1</v>
       </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -2946,6 +3629,9 @@
       <c r="C228" t="n">
         <v>1</v>
       </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -2957,6 +3643,9 @@
       <c r="C229" t="n">
         <v>1</v>
       </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -2968,6 +3657,9 @@
       <c r="C230" t="n">
         <v>1</v>
       </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -2979,6 +3671,9 @@
       <c r="C231" t="n">
         <v>1</v>
       </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -2990,6 +3685,9 @@
       <c r="C232" t="n">
         <v>1</v>
       </c>
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -3001,6 +3699,9 @@
       <c r="C233" t="n">
         <v>1</v>
       </c>
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -3012,6 +3713,9 @@
       <c r="C234" t="n">
         <v>1</v>
       </c>
+      <c r="D234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -3023,6 +3727,9 @@
       <c r="C235" t="n">
         <v>1</v>
       </c>
+      <c r="D235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -3034,6 +3741,9 @@
       <c r="C236" t="n">
         <v>1</v>
       </c>
+      <c r="D236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -3045,6 +3755,9 @@
       <c r="C237" t="n">
         <v>1</v>
       </c>
+      <c r="D237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -3056,6 +3769,9 @@
       <c r="C238" t="n">
         <v>1</v>
       </c>
+      <c r="D238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -3067,6 +3783,9 @@
       <c r="C239" t="n">
         <v>1</v>
       </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -3078,6 +3797,9 @@
       <c r="C240" t="n">
         <v>1</v>
       </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -3089,6 +3811,9 @@
       <c r="C241" t="n">
         <v>1</v>
       </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -3100,6 +3825,9 @@
       <c r="C242" t="n">
         <v>1</v>
       </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -3111,6 +3839,9 @@
       <c r="C243" t="n">
         <v>1</v>
       </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -3122,6 +3853,9 @@
       <c r="C244" t="n">
         <v>1</v>
       </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -3133,6 +3867,9 @@
       <c r="C245" t="n">
         <v>1</v>
       </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -3144,6 +3881,9 @@
       <c r="C246" t="n">
         <v>1</v>
       </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -3155,6 +3895,9 @@
       <c r="C247" t="n">
         <v>1</v>
       </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -3166,6 +3909,9 @@
       <c r="C248" t="n">
         <v>1</v>
       </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -3177,6 +3923,9 @@
       <c r="C249" t="n">
         <v>1</v>
       </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -3188,6 +3937,9 @@
       <c r="C250" t="n">
         <v>1</v>
       </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -3199,6 +3951,9 @@
       <c r="C251" t="n">
         <v>1</v>
       </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -3210,6 +3965,9 @@
       <c r="C252" t="n">
         <v>1</v>
       </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -3221,6 +3979,9 @@
       <c r="C253" t="n">
         <v>1</v>
       </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -3232,6 +3993,9 @@
       <c r="C254" t="n">
         <v>1</v>
       </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -3243,6 +4007,9 @@
       <c r="C255" t="n">
         <v>1</v>
       </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -3254,6 +4021,9 @@
       <c r="C256" t="n">
         <v>1</v>
       </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -3265,6 +4035,9 @@
       <c r="C257" t="n">
         <v>1</v>
       </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -3276,6 +4049,9 @@
       <c r="C258" t="n">
         <v>1</v>
       </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -3287,6 +4063,9 @@
       <c r="C259" t="n">
         <v>1</v>
       </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -3298,6 +4077,9 @@
       <c r="C260" t="n">
         <v>1</v>
       </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -3309,6 +4091,9 @@
       <c r="C261" t="n">
         <v>1</v>
       </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -3320,6 +4105,9 @@
       <c r="C262" t="n">
         <v>1</v>
       </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -3331,6 +4119,9 @@
       <c r="C263" t="n">
         <v>1</v>
       </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -3342,6 +4133,9 @@
       <c r="C264" t="n">
         <v>1</v>
       </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -3353,6 +4147,9 @@
       <c r="C265" t="n">
         <v>1</v>
       </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -3364,6 +4161,9 @@
       <c r="C266" t="n">
         <v>1</v>
       </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -3375,6 +4175,9 @@
       <c r="C267" t="n">
         <v>1</v>
       </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -3386,6 +4189,9 @@
       <c r="C268" t="n">
         <v>1</v>
       </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -3397,6 +4203,9 @@
       <c r="C269" t="n">
         <v>1</v>
       </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -3408,6 +4217,9 @@
       <c r="C270" t="n">
         <v>1</v>
       </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -3419,6 +4231,9 @@
       <c r="C271" t="n">
         <v>1</v>
       </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -3430,6 +4245,9 @@
       <c r="C272" t="n">
         <v>1</v>
       </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -3441,6 +4259,9 @@
       <c r="C273" t="n">
         <v>1</v>
       </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -3452,6 +4273,9 @@
       <c r="C274" t="n">
         <v>1</v>
       </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -3463,6 +4287,9 @@
       <c r="C275" t="n">
         <v>1</v>
       </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -3474,6 +4301,9 @@
       <c r="C276" t="n">
         <v>1</v>
       </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -3485,6 +4315,9 @@
       <c r="C277" t="n">
         <v>1</v>
       </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -3496,6 +4329,9 @@
       <c r="C278" t="n">
         <v>1</v>
       </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -3507,6 +4343,9 @@
       <c r="C279" t="n">
         <v>1</v>
       </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -3518,6 +4357,9 @@
       <c r="C280" t="n">
         <v>1</v>
       </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -3529,6 +4371,9 @@
       <c r="C281" t="n">
         <v>1</v>
       </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -3540,6 +4385,9 @@
       <c r="C282" t="n">
         <v>1</v>
       </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -3551,6 +4399,9 @@
       <c r="C283" t="n">
         <v>1</v>
       </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -3562,6 +4413,9 @@
       <c r="C284" t="n">
         <v>1</v>
       </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -3573,6 +4427,9 @@
       <c r="C285" t="n">
         <v>1</v>
       </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -3584,6 +4441,9 @@
       <c r="C286" t="n">
         <v>1</v>
       </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -3595,6 +4455,9 @@
       <c r="C287" t="n">
         <v>1</v>
       </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -3606,6 +4469,9 @@
       <c r="C288" t="n">
         <v>1</v>
       </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -3617,6 +4483,9 @@
       <c r="C289" t="n">
         <v>1</v>
       </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -3628,6 +4497,9 @@
       <c r="C290" t="n">
         <v>1</v>
       </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -3639,6 +4511,9 @@
       <c r="C291" t="n">
         <v>1</v>
       </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -3650,6 +4525,9 @@
       <c r="C292" t="n">
         <v>1</v>
       </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -3661,6 +4539,9 @@
       <c r="C293" t="n">
         <v>1</v>
       </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -3672,6 +4553,9 @@
       <c r="C294" t="n">
         <v>1</v>
       </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -3683,6 +4567,9 @@
       <c r="C295" t="n">
         <v>1</v>
       </c>
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -3694,6 +4581,9 @@
       <c r="C296" t="n">
         <v>1</v>
       </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -3705,6 +4595,9 @@
       <c r="C297" t="n">
         <v>1</v>
       </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -3716,6 +4609,9 @@
       <c r="C298" t="n">
         <v>1</v>
       </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -3727,6 +4623,9 @@
       <c r="C299" t="n">
         <v>1</v>
       </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -3738,6 +4637,9 @@
       <c r="C300" t="n">
         <v>1</v>
       </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -3749,6 +4651,9 @@
       <c r="C301" t="n">
         <v>1</v>
       </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -3760,6 +4665,9 @@
       <c r="C302" t="n">
         <v>1</v>
       </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -3771,6 +4679,9 @@
       <c r="C303" t="n">
         <v>1</v>
       </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -3782,6 +4693,9 @@
       <c r="C304" t="n">
         <v>1</v>
       </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -3793,6 +4707,9 @@
       <c r="C305" t="n">
         <v>1</v>
       </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -3804,6 +4721,9 @@
       <c r="C306" t="n">
         <v>1</v>
       </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -3815,6 +4735,9 @@
       <c r="C307" t="n">
         <v>1</v>
       </c>
+      <c r="D307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -3826,6 +4749,9 @@
       <c r="C308" t="n">
         <v>2</v>
       </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -3837,6 +4763,9 @@
       <c r="C309" t="n">
         <v>2</v>
       </c>
+      <c r="D309" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -3848,6 +4777,9 @@
       <c r="C310" t="n">
         <v>2</v>
       </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -3859,6 +4791,9 @@
       <c r="C311" t="n">
         <v>2</v>
       </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -3870,6 +4805,9 @@
       <c r="C312" t="n">
         <v>2</v>
       </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -3881,6 +4819,9 @@
       <c r="C313" t="n">
         <v>2</v>
       </c>
+      <c r="D313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -3892,6 +4833,9 @@
       <c r="C314" t="n">
         <v>2</v>
       </c>
+      <c r="D314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -3903,6 +4847,9 @@
       <c r="C315" t="n">
         <v>2</v>
       </c>
+      <c r="D315" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -3914,6 +4861,9 @@
       <c r="C316" t="n">
         <v>2</v>
       </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -3925,6 +4875,9 @@
       <c r="C317" t="n">
         <v>2</v>
       </c>
+      <c r="D317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -3936,6 +4889,9 @@
       <c r="C318" t="n">
         <v>2</v>
       </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -3947,6 +4903,9 @@
       <c r="C319" t="n">
         <v>2</v>
       </c>
+      <c r="D319" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -3958,6 +4917,9 @@
       <c r="C320" t="n">
         <v>2</v>
       </c>
+      <c r="D320" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -3969,6 +4931,9 @@
       <c r="C321" t="n">
         <v>2</v>
       </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -3980,6 +4945,9 @@
       <c r="C322" t="n">
         <v>2</v>
       </c>
+      <c r="D322" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -3991,6 +4959,9 @@
       <c r="C323" t="n">
         <v>2</v>
       </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -4002,6 +4973,9 @@
       <c r="C324" t="n">
         <v>2</v>
       </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -4013,6 +4987,9 @@
       <c r="C325" t="n">
         <v>2</v>
       </c>
+      <c r="D325" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -4024,6 +5001,9 @@
       <c r="C326" t="n">
         <v>2</v>
       </c>
+      <c r="D326" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -4035,6 +5015,9 @@
       <c r="C327" t="n">
         <v>2</v>
       </c>
+      <c r="D327" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -4046,6 +5029,9 @@
       <c r="C328" t="n">
         <v>2</v>
       </c>
+      <c r="D328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -4057,6 +5043,9 @@
       <c r="C329" t="n">
         <v>2</v>
       </c>
+      <c r="D329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -4068,6 +5057,9 @@
       <c r="C330" t="n">
         <v>2</v>
       </c>
+      <c r="D330" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -4079,6 +5071,9 @@
       <c r="C331" t="n">
         <v>2</v>
       </c>
+      <c r="D331" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -4090,6 +5085,9 @@
       <c r="C332" t="n">
         <v>2</v>
       </c>
+      <c r="D332" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -4101,6 +5099,9 @@
       <c r="C333" t="n">
         <v>2</v>
       </c>
+      <c r="D333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -4112,6 +5113,9 @@
       <c r="C334" t="n">
         <v>2</v>
       </c>
+      <c r="D334" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -4123,6 +5127,9 @@
       <c r="C335" t="n">
         <v>2</v>
       </c>
+      <c r="D335" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -4134,6 +5141,9 @@
       <c r="C336" t="n">
         <v>2</v>
       </c>
+      <c r="D336" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -4145,6 +5155,9 @@
       <c r="C337" t="n">
         <v>2</v>
       </c>
+      <c r="D337" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -4156,6 +5169,9 @@
       <c r="C338" t="n">
         <v>2</v>
       </c>
+      <c r="D338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -4167,6 +5183,9 @@
       <c r="C339" t="n">
         <v>2</v>
       </c>
+      <c r="D339" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -4178,6 +5197,9 @@
       <c r="C340" t="n">
         <v>2</v>
       </c>
+      <c r="D340" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -4189,6 +5211,9 @@
       <c r="C341" t="n">
         <v>2</v>
       </c>
+      <c r="D341" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -4200,6 +5225,9 @@
       <c r="C342" t="n">
         <v>2</v>
       </c>
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -4211,6 +5239,9 @@
       <c r="C343" t="n">
         <v>2</v>
       </c>
+      <c r="D343" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -4222,6 +5253,9 @@
       <c r="C344" t="n">
         <v>2</v>
       </c>
+      <c r="D344" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -4233,6 +5267,9 @@
       <c r="C345" t="n">
         <v>2</v>
       </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -4244,6 +5281,9 @@
       <c r="C346" t="n">
         <v>2</v>
       </c>
+      <c r="D346" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -4255,6 +5295,9 @@
       <c r="C347" t="n">
         <v>3</v>
       </c>
+      <c r="D347" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -4266,6 +5309,9 @@
       <c r="C348" t="n">
         <v>3</v>
       </c>
+      <c r="D348" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -4277,6 +5323,9 @@
       <c r="C349" t="n">
         <v>3</v>
       </c>
+      <c r="D349" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -4288,6 +5337,9 @@
       <c r="C350" t="n">
         <v>4</v>
       </c>
+      <c r="D350" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -4299,6 +5351,9 @@
       <c r="C351" t="n">
         <v>4</v>
       </c>
+      <c r="D351" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -4310,6 +5365,9 @@
       <c r="C352" t="n">
         <v>4</v>
       </c>
+      <c r="D352" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -4321,6 +5379,9 @@
       <c r="C353" t="n">
         <v>4</v>
       </c>
+      <c r="D353" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -4332,6 +5393,9 @@
       <c r="C354" t="n">
         <v>4</v>
       </c>
+      <c r="D354" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -4343,6 +5407,9 @@
       <c r="C355" t="n">
         <v>4</v>
       </c>
+      <c r="D355" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -4354,6 +5421,9 @@
       <c r="C356" t="n">
         <v>4</v>
       </c>
+      <c r="D356" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -4365,6 +5435,9 @@
       <c r="C357" t="n">
         <v>4</v>
       </c>
+      <c r="D357" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -4376,6 +5449,9 @@
       <c r="C358" t="n">
         <v>4</v>
       </c>
+      <c r="D358" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -4387,6 +5463,9 @@
       <c r="C359" t="n">
         <v>4</v>
       </c>
+      <c r="D359" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -4398,6 +5477,9 @@
       <c r="C360" t="n">
         <v>4</v>
       </c>
+      <c r="D360" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -4409,6 +5491,9 @@
       <c r="C361" t="n">
         <v>4</v>
       </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -4420,6 +5505,9 @@
       <c r="C362" t="n">
         <v>4</v>
       </c>
+      <c r="D362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -4431,6 +5519,9 @@
       <c r="C363" t="n">
         <v>4</v>
       </c>
+      <c r="D363" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -4442,6 +5533,9 @@
       <c r="C364" t="n">
         <v>4</v>
       </c>
+      <c r="D364" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -4453,6 +5547,9 @@
       <c r="C365" t="n">
         <v>4</v>
       </c>
+      <c r="D365" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -4464,6 +5561,9 @@
       <c r="C366" t="n">
         <v>4</v>
       </c>
+      <c r="D366" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -4475,6 +5575,9 @@
       <c r="C367" t="n">
         <v>4</v>
       </c>
+      <c r="D367" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -4486,6 +5589,9 @@
       <c r="C368" t="n">
         <v>4</v>
       </c>
+      <c r="D368" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -4497,6 +5603,9 @@
       <c r="C369" t="n">
         <v>4</v>
       </c>
+      <c r="D369" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -4508,6 +5617,9 @@
       <c r="C370" t="n">
         <v>4</v>
       </c>
+      <c r="D370" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -4519,6 +5631,9 @@
       <c r="C371" t="n">
         <v>4</v>
       </c>
+      <c r="D371" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -4530,6 +5645,9 @@
       <c r="C372" t="n">
         <v>4</v>
       </c>
+      <c r="D372" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -4541,6 +5659,9 @@
       <c r="C373" t="n">
         <v>4</v>
       </c>
+      <c r="D373" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -4552,6 +5673,9 @@
       <c r="C374" t="n">
         <v>4</v>
       </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -4563,6 +5687,9 @@
       <c r="C375" t="n">
         <v>4</v>
       </c>
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -4574,6 +5701,9 @@
       <c r="C376" t="n">
         <v>4</v>
       </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -4585,6 +5715,9 @@
       <c r="C377" t="n">
         <v>4</v>
       </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -4596,6 +5729,9 @@
       <c r="C378" t="n">
         <v>4</v>
       </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -4607,6 +5743,9 @@
       <c r="C379" t="n">
         <v>4</v>
       </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -4618,6 +5757,9 @@
       <c r="C380" t="n">
         <v>4</v>
       </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -4629,6 +5771,9 @@
       <c r="C381" t="n">
         <v>4</v>
       </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -4640,6 +5785,9 @@
       <c r="C382" t="n">
         <v>4</v>
       </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -4651,6 +5799,9 @@
       <c r="C383" t="n">
         <v>4</v>
       </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -4662,6 +5813,9 @@
       <c r="C384" t="n">
         <v>4</v>
       </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -4673,6 +5827,9 @@
       <c r="C385" t="n">
         <v>4</v>
       </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -4684,6 +5841,9 @@
       <c r="C386" t="n">
         <v>4</v>
       </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -4695,6 +5855,9 @@
       <c r="C387" t="n">
         <v>4</v>
       </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -4706,6 +5869,9 @@
       <c r="C388" t="n">
         <v>4</v>
       </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -4717,6 +5883,9 @@
       <c r="C389" t="n">
         <v>4</v>
       </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -4728,6 +5897,9 @@
       <c r="C390" t="n">
         <v>4</v>
       </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -4739,6 +5911,9 @@
       <c r="C391" t="n">
         <v>4</v>
       </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -4750,6 +5925,9 @@
       <c r="C392" t="n">
         <v>4</v>
       </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -4761,6 +5939,9 @@
       <c r="C393" t="n">
         <v>4</v>
       </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -4772,6 +5953,9 @@
       <c r="C394" t="n">
         <v>4</v>
       </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -4783,6 +5967,9 @@
       <c r="C395" t="n">
         <v>4</v>
       </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -4794,6 +5981,9 @@
       <c r="C396" t="n">
         <v>4</v>
       </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -4805,6 +5995,9 @@
       <c r="C397" t="n">
         <v>4</v>
       </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -4816,6 +6009,9 @@
       <c r="C398" t="n">
         <v>4</v>
       </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -4827,6 +6023,9 @@
       <c r="C399" t="n">
         <v>4</v>
       </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -4838,6 +6037,9 @@
       <c r="C400" t="n">
         <v>4</v>
       </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -4849,6 +6051,9 @@
       <c r="C401" t="n">
         <v>4</v>
       </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -4860,6 +6065,9 @@
       <c r="C402" t="n">
         <v>4</v>
       </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -4871,6 +6079,9 @@
       <c r="C403" t="n">
         <v>4</v>
       </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -4882,6 +6093,9 @@
       <c r="C404" t="n">
         <v>4</v>
       </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -4893,6 +6107,9 @@
       <c r="C405" t="n">
         <v>4</v>
       </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -4904,6 +6121,9 @@
       <c r="C406" t="n">
         <v>4</v>
       </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -4915,6 +6135,9 @@
       <c r="C407" t="n">
         <v>4</v>
       </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -4926,6 +6149,9 @@
       <c r="C408" t="n">
         <v>4</v>
       </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -4937,6 +6163,9 @@
       <c r="C409" t="n">
         <v>4</v>
       </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -4948,6 +6177,9 @@
       <c r="C410" t="n">
         <v>4</v>
       </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -4959,6 +6191,9 @@
       <c r="C411" t="n">
         <v>4</v>
       </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -4970,6 +6205,9 @@
       <c r="C412" t="n">
         <v>4</v>
       </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -4981,6 +6219,9 @@
       <c r="C413" t="n">
         <v>4</v>
       </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -4992,6 +6233,9 @@
       <c r="C414" t="n">
         <v>4</v>
       </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -5003,6 +6247,9 @@
       <c r="C415" t="n">
         <v>4</v>
       </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -5014,6 +6261,9 @@
       <c r="C416" t="n">
         <v>4</v>
       </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -5025,6 +6275,9 @@
       <c r="C417" t="n">
         <v>4</v>
       </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -5036,6 +6289,9 @@
       <c r="C418" t="n">
         <v>4</v>
       </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -5047,6 +6303,9 @@
       <c r="C419" t="n">
         <v>4</v>
       </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -5058,6 +6317,9 @@
       <c r="C420" t="n">
         <v>4</v>
       </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -5069,6 +6331,9 @@
       <c r="C421" t="n">
         <v>4</v>
       </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -5080,6 +6345,9 @@
       <c r="C422" t="n">
         <v>4</v>
       </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -5091,6 +6359,9 @@
       <c r="C423" t="n">
         <v>4</v>
       </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -5102,6 +6373,9 @@
       <c r="C424" t="n">
         <v>4</v>
       </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -5113,6 +6387,9 @@
       <c r="C425" t="n">
         <v>4</v>
       </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -5124,6 +6401,9 @@
       <c r="C426" t="n">
         <v>4</v>
       </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -5135,6 +6415,9 @@
       <c r="C427" t="n">
         <v>4</v>
       </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -5146,6 +6429,9 @@
       <c r="C428" t="n">
         <v>4</v>
       </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -5157,6 +6443,9 @@
       <c r="C429" t="n">
         <v>4</v>
       </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -5168,6 +6457,9 @@
       <c r="C430" t="n">
         <v>4</v>
       </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -5179,6 +6471,9 @@
       <c r="C431" t="n">
         <v>4</v>
       </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -5190,6 +6485,9 @@
       <c r="C432" t="n">
         <v>4</v>
       </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -5201,6 +6499,9 @@
       <c r="C433" t="n">
         <v>4</v>
       </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -5212,6 +6513,9 @@
       <c r="C434" t="n">
         <v>4</v>
       </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -5223,6 +6527,9 @@
       <c r="C435" t="n">
         <v>4</v>
       </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -5234,6 +6541,9 @@
       <c r="C436" t="n">
         <v>4</v>
       </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -5245,6 +6555,9 @@
       <c r="C437" t="n">
         <v>4</v>
       </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -5256,6 +6569,9 @@
       <c r="C438" t="n">
         <v>4</v>
       </c>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -5267,6 +6583,9 @@
       <c r="C439" t="n">
         <v>4</v>
       </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -5278,6 +6597,9 @@
       <c r="C440" t="n">
         <v>4</v>
       </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -5289,6 +6611,9 @@
       <c r="C441" t="n">
         <v>4</v>
       </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -5300,6 +6625,9 @@
       <c r="C442" t="n">
         <v>4</v>
       </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -5311,6 +6639,9 @@
       <c r="C443" t="n">
         <v>4</v>
       </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -5322,6 +6653,9 @@
       <c r="C444" t="n">
         <v>4</v>
       </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -5333,6 +6667,9 @@
       <c r="C445" t="n">
         <v>4</v>
       </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -5344,6 +6681,9 @@
       <c r="C446" t="n">
         <v>4</v>
       </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -5355,6 +6695,9 @@
       <c r="C447" t="n">
         <v>4</v>
       </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -5366,6 +6709,9 @@
       <c r="C448" t="n">
         <v>4</v>
       </c>
+      <c r="D448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -5377,6 +6723,9 @@
       <c r="C449" t="n">
         <v>4</v>
       </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -5388,6 +6737,9 @@
       <c r="C450" t="n">
         <v>4</v>
       </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -5399,6 +6751,9 @@
       <c r="C451" t="n">
         <v>4</v>
       </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -5410,6 +6765,9 @@
       <c r="C452" t="n">
         <v>4</v>
       </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -5421,6 +6779,9 @@
       <c r="C453" t="n">
         <v>4</v>
       </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -5432,6 +6793,9 @@
       <c r="C454" t="n">
         <v>4</v>
       </c>
+      <c r="D454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -5443,6 +6807,9 @@
       <c r="C455" t="n">
         <v>4</v>
       </c>
+      <c r="D455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -5454,6 +6821,9 @@
       <c r="C456" t="n">
         <v>4</v>
       </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -5465,6 +6835,9 @@
       <c r="C457" t="n">
         <v>4</v>
       </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -5476,6 +6849,9 @@
       <c r="C458" t="n">
         <v>4</v>
       </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -5487,6 +6863,9 @@
       <c r="C459" t="n">
         <v>4</v>
       </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -5498,6 +6877,9 @@
       <c r="C460" t="n">
         <v>4</v>
       </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -5509,6 +6891,9 @@
       <c r="C461" t="n">
         <v>4</v>
       </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -5520,6 +6905,9 @@
       <c r="C462" t="n">
         <v>4</v>
       </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -5531,6 +6919,9 @@
       <c r="C463" t="n">
         <v>4</v>
       </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -5542,6 +6933,9 @@
       <c r="C464" t="n">
         <v>4</v>
       </c>
+      <c r="D464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -5553,6 +6947,9 @@
       <c r="C465" t="n">
         <v>4</v>
       </c>
+      <c r="D465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -5564,6 +6961,9 @@
       <c r="C466" t="n">
         <v>4</v>
       </c>
+      <c r="D466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -5575,6 +6975,9 @@
       <c r="C467" t="n">
         <v>4</v>
       </c>
+      <c r="D467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -5586,6 +6989,9 @@
       <c r="C468" t="n">
         <v>4</v>
       </c>
+      <c r="D468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -5597,6 +7003,9 @@
       <c r="C469" t="n">
         <v>4</v>
       </c>
+      <c r="D469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -5608,6 +7017,9 @@
       <c r="C470" t="n">
         <v>4</v>
       </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -5619,6 +7031,9 @@
       <c r="C471" t="n">
         <v>4</v>
       </c>
+      <c r="D471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -5630,6 +7045,9 @@
       <c r="C472" t="n">
         <v>4</v>
       </c>
+      <c r="D472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -5641,6 +7059,9 @@
       <c r="C473" t="n">
         <v>4</v>
       </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -5652,6 +7073,9 @@
       <c r="C474" t="n">
         <v>4</v>
       </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -5663,6 +7087,9 @@
       <c r="C475" t="n">
         <v>4</v>
       </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -5674,6 +7101,9 @@
       <c r="C476" t="n">
         <v>4</v>
       </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -5685,6 +7115,9 @@
       <c r="C477" t="n">
         <v>4</v>
       </c>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -5696,6 +7129,9 @@
       <c r="C478" t="n">
         <v>4</v>
       </c>
+      <c r="D478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -5707,6 +7143,9 @@
       <c r="C479" t="n">
         <v>4</v>
       </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -5718,6 +7157,9 @@
       <c r="C480" t="n">
         <v>4</v>
       </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -5729,6 +7171,9 @@
       <c r="C481" t="n">
         <v>4</v>
       </c>
+      <c r="D481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -5740,6 +7185,9 @@
       <c r="C482" t="n">
         <v>4</v>
       </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -5751,6 +7199,9 @@
       <c r="C483" t="n">
         <v>4</v>
       </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -5762,6 +7213,9 @@
       <c r="C484" t="n">
         <v>4</v>
       </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -5773,6 +7227,9 @@
       <c r="C485" t="n">
         <v>4</v>
       </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -5784,6 +7241,9 @@
       <c r="C486" t="n">
         <v>4</v>
       </c>
+      <c r="D486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -5795,6 +7255,9 @@
       <c r="C487" t="n">
         <v>4</v>
       </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -5806,6 +7269,9 @@
       <c r="C488" t="n">
         <v>4</v>
       </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -5817,6 +7283,9 @@
       <c r="C489" t="n">
         <v>4</v>
       </c>
+      <c r="D489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -5828,6 +7297,9 @@
       <c r="C490" t="n">
         <v>4</v>
       </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -5839,6 +7311,9 @@
       <c r="C491" t="n">
         <v>4</v>
       </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -5850,6 +7325,9 @@
       <c r="C492" t="n">
         <v>4</v>
       </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -5861,6 +7339,9 @@
       <c r="C493" t="n">
         <v>4</v>
       </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -5872,6 +7353,9 @@
       <c r="C494" t="n">
         <v>4</v>
       </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -5883,6 +7367,9 @@
       <c r="C495" t="n">
         <v>4</v>
       </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -5894,6 +7381,9 @@
       <c r="C496" t="n">
         <v>4</v>
       </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -5905,6 +7395,9 @@
       <c r="C497" t="n">
         <v>4</v>
       </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -5916,6 +7409,9 @@
       <c r="C498" t="n">
         <v>4</v>
       </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -5927,6 +7423,9 @@
       <c r="C499" t="n">
         <v>4</v>
       </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -5938,6 +7437,9 @@
       <c r="C500" t="n">
         <v>4</v>
       </c>
+      <c r="D500" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -5949,6 +7451,9 @@
       <c r="C501" t="n">
         <v>4</v>
       </c>
+      <c r="D501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -5960,6 +7465,9 @@
       <c r="C502" t="n">
         <v>4</v>
       </c>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -5971,6 +7479,9 @@
       <c r="C503" t="n">
         <v>4</v>
       </c>
+      <c r="D503" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -5982,6 +7493,9 @@
       <c r="C504" t="n">
         <v>4</v>
       </c>
+      <c r="D504" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -5993,6 +7507,9 @@
       <c r="C505" t="n">
         <v>4</v>
       </c>
+      <c r="D505" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -6004,6 +7521,9 @@
       <c r="C506" t="n">
         <v>4</v>
       </c>
+      <c r="D506" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -6015,6 +7535,9 @@
       <c r="C507" t="n">
         <v>4</v>
       </c>
+      <c r="D507" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -6026,6 +7549,9 @@
       <c r="C508" t="n">
         <v>4</v>
       </c>
+      <c r="D508" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -6037,6 +7563,9 @@
       <c r="C509" t="n">
         <v>4</v>
       </c>
+      <c r="D509" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -6048,6 +7577,9 @@
       <c r="C510" t="n">
         <v>4</v>
       </c>
+      <c r="D510" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -6059,6 +7591,9 @@
       <c r="C511" t="n">
         <v>4</v>
       </c>
+      <c r="D511" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -6070,6 +7605,9 @@
       <c r="C512" t="n">
         <v>4</v>
       </c>
+      <c r="D512" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -6081,6 +7619,9 @@
       <c r="C513" t="n">
         <v>4</v>
       </c>
+      <c r="D513" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -6092,6 +7633,9 @@
       <c r="C514" t="n">
         <v>4</v>
       </c>
+      <c r="D514" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -6103,6 +7647,9 @@
       <c r="C515" t="n">
         <v>4</v>
       </c>
+      <c r="D515" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -6114,6 +7661,9 @@
       <c r="C516" t="n">
         <v>4</v>
       </c>
+      <c r="D516" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -6125,6 +7675,9 @@
       <c r="C517" t="n">
         <v>4</v>
       </c>
+      <c r="D517" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -6136,6 +7689,9 @@
       <c r="C518" t="n">
         <v>4</v>
       </c>
+      <c r="D518" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -6147,6 +7703,9 @@
       <c r="C519" t="n">
         <v>4</v>
       </c>
+      <c r="D519" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -6158,6 +7717,9 @@
       <c r="C520" t="n">
         <v>4</v>
       </c>
+      <c r="D520" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -6169,6 +7731,9 @@
       <c r="C521" t="n">
         <v>4</v>
       </c>
+      <c r="D521" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -6180,6 +7745,9 @@
       <c r="C522" t="n">
         <v>4</v>
       </c>
+      <c r="D522" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -6191,6 +7759,9 @@
       <c r="C523" t="n">
         <v>4</v>
       </c>
+      <c r="D523" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -6202,6 +7773,9 @@
       <c r="C524" t="n">
         <v>4</v>
       </c>
+      <c r="D524" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -6213,6 +7787,9 @@
       <c r="C525" t="n">
         <v>4</v>
       </c>
+      <c r="D525" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -6224,6 +7801,9 @@
       <c r="C526" t="n">
         <v>4</v>
       </c>
+      <c r="D526" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -6235,6 +7815,9 @@
       <c r="C527" t="n">
         <v>4</v>
       </c>
+      <c r="D527" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -6246,6 +7829,9 @@
       <c r="C528" t="n">
         <v>5</v>
       </c>
+      <c r="D528" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -6257,6 +7843,9 @@
       <c r="C529" t="n">
         <v>6</v>
       </c>
+      <c r="D529" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -6268,6 +7857,9 @@
       <c r="C530" t="n">
         <v>6</v>
       </c>
+      <c r="D530" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -6279,6 +7871,9 @@
       <c r="C531" t="n">
         <v>6</v>
       </c>
+      <c r="D531" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -6290,6 +7885,9 @@
       <c r="C532" t="n">
         <v>6</v>
       </c>
+      <c r="D532" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -6301,6 +7899,9 @@
       <c r="C533" t="n">
         <v>6</v>
       </c>
+      <c r="D533" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -6312,6 +7913,9 @@
       <c r="C534" t="n">
         <v>6</v>
       </c>
+      <c r="D534" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -6323,6 +7927,9 @@
       <c r="C535" t="n">
         <v>6</v>
       </c>
+      <c r="D535" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -6334,6 +7941,9 @@
       <c r="C536" t="n">
         <v>6</v>
       </c>
+      <c r="D536" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -6345,6 +7955,9 @@
       <c r="C537" t="n">
         <v>6</v>
       </c>
+      <c r="D537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -6356,6 +7969,9 @@
       <c r="C538" t="n">
         <v>6</v>
       </c>
+      <c r="D538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -6367,6 +7983,9 @@
       <c r="C539" t="n">
         <v>6</v>
       </c>
+      <c r="D539" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -6378,6 +7997,9 @@
       <c r="C540" t="n">
         <v>6</v>
       </c>
+      <c r="D540" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -6389,6 +8011,9 @@
       <c r="C541" t="n">
         <v>6</v>
       </c>
+      <c r="D541" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -6400,6 +8025,9 @@
       <c r="C542" t="n">
         <v>6</v>
       </c>
+      <c r="D542" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -6411,6 +8039,9 @@
       <c r="C543" t="n">
         <v>6</v>
       </c>
+      <c r="D543" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -6422,6 +8053,9 @@
       <c r="C544" t="n">
         <v>6</v>
       </c>
+      <c r="D544" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -6433,6 +8067,9 @@
       <c r="C545" t="n">
         <v>6</v>
       </c>
+      <c r="D545" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -6444,6 +8081,9 @@
       <c r="C546" t="n">
         <v>6</v>
       </c>
+      <c r="D546" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -6455,6 +8095,9 @@
       <c r="C547" t="n">
         <v>6</v>
       </c>
+      <c r="D547" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -6466,6 +8109,9 @@
       <c r="C548" t="n">
         <v>6</v>
       </c>
+      <c r="D548" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -6477,6 +8123,9 @@
       <c r="C549" t="n">
         <v>6</v>
       </c>
+      <c r="D549" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -6488,6 +8137,9 @@
       <c r="C550" t="n">
         <v>6</v>
       </c>
+      <c r="D550" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -6499,6 +8151,9 @@
       <c r="C551" t="n">
         <v>6</v>
       </c>
+      <c r="D551" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -6510,6 +8165,9 @@
       <c r="C552" t="n">
         <v>6</v>
       </c>
+      <c r="D552" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -6521,6 +8179,9 @@
       <c r="C553" t="n">
         <v>6</v>
       </c>
+      <c r="D553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -6532,6 +8193,9 @@
       <c r="C554" t="n">
         <v>6</v>
       </c>
+      <c r="D554" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -6543,6 +8207,9 @@
       <c r="C555" t="n">
         <v>6</v>
       </c>
+      <c r="D555" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -6554,6 +8221,9 @@
       <c r="C556" t="n">
         <v>6</v>
       </c>
+      <c r="D556" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -6565,6 +8235,9 @@
       <c r="C557" t="n">
         <v>6</v>
       </c>
+      <c r="D557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -6576,6 +8249,9 @@
       <c r="C558" t="n">
         <v>6</v>
       </c>
+      <c r="D558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -6587,6 +8263,9 @@
       <c r="C559" t="n">
         <v>6</v>
       </c>
+      <c r="D559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -6598,6 +8277,9 @@
       <c r="C560" t="n">
         <v>6</v>
       </c>
+      <c r="D560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -6609,6 +8291,9 @@
       <c r="C561" t="n">
         <v>6</v>
       </c>
+      <c r="D561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -6620,6 +8305,9 @@
       <c r="C562" t="n">
         <v>6</v>
       </c>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -6631,6 +8319,9 @@
       <c r="C563" t="n">
         <v>6</v>
       </c>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -6642,6 +8333,9 @@
       <c r="C564" t="n">
         <v>6</v>
       </c>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -6653,6 +8347,9 @@
       <c r="C565" t="n">
         <v>6</v>
       </c>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -6664,6 +8361,9 @@
       <c r="C566" t="n">
         <v>6</v>
       </c>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -6675,6 +8375,9 @@
       <c r="C567" t="n">
         <v>6</v>
       </c>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -6686,6 +8389,9 @@
       <c r="C568" t="n">
         <v>6</v>
       </c>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -6697,6 +8403,9 @@
       <c r="C569" t="n">
         <v>6</v>
       </c>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -6708,6 +8417,9 @@
       <c r="C570" t="n">
         <v>6</v>
       </c>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -6719,6 +8431,9 @@
       <c r="C571" t="n">
         <v>6</v>
       </c>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -6730,6 +8445,9 @@
       <c r="C572" t="n">
         <v>6</v>
       </c>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -6741,6 +8459,9 @@
       <c r="C573" t="n">
         <v>6</v>
       </c>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -6752,6 +8473,9 @@
       <c r="C574" t="n">
         <v>6</v>
       </c>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -6763,6 +8487,9 @@
       <c r="C575" t="n">
         <v>6</v>
       </c>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -6774,6 +8501,9 @@
       <c r="C576" t="n">
         <v>6</v>
       </c>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -6785,6 +8515,9 @@
       <c r="C577" t="n">
         <v>6</v>
       </c>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -6796,6 +8529,9 @@
       <c r="C578" t="n">
         <v>6</v>
       </c>
+      <c r="D578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -6807,6 +8543,9 @@
       <c r="C579" t="n">
         <v>6</v>
       </c>
+      <c r="D579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -6818,6 +8557,9 @@
       <c r="C580" t="n">
         <v>6</v>
       </c>
+      <c r="D580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -6829,6 +8571,9 @@
       <c r="C581" t="n">
         <v>6</v>
       </c>
+      <c r="D581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -6840,6 +8585,9 @@
       <c r="C582" t="n">
         <v>6</v>
       </c>
+      <c r="D582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -6851,6 +8599,9 @@
       <c r="C583" t="n">
         <v>6</v>
       </c>
+      <c r="D583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -6862,6 +8613,9 @@
       <c r="C584" t="n">
         <v>6</v>
       </c>
+      <c r="D584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -6873,6 +8627,9 @@
       <c r="C585" t="n">
         <v>6</v>
       </c>
+      <c r="D585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -6884,6 +8641,9 @@
       <c r="C586" t="n">
         <v>6</v>
       </c>
+      <c r="D586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -6895,6 +8655,9 @@
       <c r="C587" t="n">
         <v>6</v>
       </c>
+      <c r="D587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -6906,6 +8669,9 @@
       <c r="C588" t="n">
         <v>6</v>
       </c>
+      <c r="D588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -6917,6 +8683,9 @@
       <c r="C589" t="n">
         <v>6</v>
       </c>
+      <c r="D589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -6928,6 +8697,9 @@
       <c r="C590" t="n">
         <v>6</v>
       </c>
+      <c r="D590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -6939,6 +8711,9 @@
       <c r="C591" t="n">
         <v>6</v>
       </c>
+      <c r="D591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -6950,6 +8725,9 @@
       <c r="C592" t="n">
         <v>6</v>
       </c>
+      <c r="D592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -6961,6 +8739,9 @@
       <c r="C593" t="n">
         <v>6</v>
       </c>
+      <c r="D593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -6972,6 +8753,9 @@
       <c r="C594" t="n">
         <v>6</v>
       </c>
+      <c r="D594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -6983,6 +8767,9 @@
       <c r="C595" t="n">
         <v>6</v>
       </c>
+      <c r="D595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -6994,6 +8781,9 @@
       <c r="C596" t="n">
         <v>6</v>
       </c>
+      <c r="D596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -7005,6 +8795,9 @@
       <c r="C597" t="n">
         <v>6</v>
       </c>
+      <c r="D597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -7016,6 +8809,9 @@
       <c r="C598" t="n">
         <v>6</v>
       </c>
+      <c r="D598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -7027,6 +8823,9 @@
       <c r="C599" t="n">
         <v>6</v>
       </c>
+      <c r="D599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -7038,6 +8837,9 @@
       <c r="C600" t="n">
         <v>6</v>
       </c>
+      <c r="D600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -7049,6 +8851,9 @@
       <c r="C601" t="n">
         <v>6</v>
       </c>
+      <c r="D601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -7060,6 +8865,9 @@
       <c r="C602" t="n">
         <v>6</v>
       </c>
+      <c r="D602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -7071,6 +8879,9 @@
       <c r="C603" t="n">
         <v>6</v>
       </c>
+      <c r="D603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -7082,6 +8893,9 @@
       <c r="C604" t="n">
         <v>6</v>
       </c>
+      <c r="D604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -7093,6 +8907,9 @@
       <c r="C605" t="n">
         <v>6</v>
       </c>
+      <c r="D605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -7104,6 +8921,9 @@
       <c r="C606" t="n">
         <v>6</v>
       </c>
+      <c r="D606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -7115,6 +8935,9 @@
       <c r="C607" t="n">
         <v>6</v>
       </c>
+      <c r="D607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -7126,6 +8949,9 @@
       <c r="C608" t="n">
         <v>6</v>
       </c>
+      <c r="D608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -7137,6 +8963,9 @@
       <c r="C609" t="n">
         <v>6</v>
       </c>
+      <c r="D609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -7148,6 +8977,9 @@
       <c r="C610" t="n">
         <v>6</v>
       </c>
+      <c r="D610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -7159,6 +8991,9 @@
       <c r="C611" t="n">
         <v>6</v>
       </c>
+      <c r="D611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -7170,6 +9005,9 @@
       <c r="C612" t="n">
         <v>6</v>
       </c>
+      <c r="D612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -7181,6 +9019,9 @@
       <c r="C613" t="n">
         <v>6</v>
       </c>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -7192,6 +9033,9 @@
       <c r="C614" t="n">
         <v>6</v>
       </c>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -7203,6 +9047,9 @@
       <c r="C615" t="n">
         <v>6</v>
       </c>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -7214,6 +9061,9 @@
       <c r="C616" t="n">
         <v>6</v>
       </c>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -7225,6 +9075,9 @@
       <c r="C617" t="n">
         <v>6</v>
       </c>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -7236,6 +9089,9 @@
       <c r="C618" t="n">
         <v>6</v>
       </c>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -7247,6 +9103,9 @@
       <c r="C619" t="n">
         <v>6</v>
       </c>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -7258,6 +9117,9 @@
       <c r="C620" t="n">
         <v>6</v>
       </c>
+      <c r="D620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -7269,6 +9131,9 @@
       <c r="C621" t="n">
         <v>6</v>
       </c>
+      <c r="D621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -7280,6 +9145,9 @@
       <c r="C622" t="n">
         <v>6</v>
       </c>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -7291,6 +9159,9 @@
       <c r="C623" t="n">
         <v>6</v>
       </c>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -7302,6 +9173,9 @@
       <c r="C624" t="n">
         <v>6</v>
       </c>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -7313,6 +9187,9 @@
       <c r="C625" t="n">
         <v>6</v>
       </c>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -7324,6 +9201,9 @@
       <c r="C626" t="n">
         <v>6</v>
       </c>
+      <c r="D626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -7335,6 +9215,9 @@
       <c r="C627" t="n">
         <v>6</v>
       </c>
+      <c r="D627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -7346,6 +9229,9 @@
       <c r="C628" t="n">
         <v>6</v>
       </c>
+      <c r="D628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -7357,6 +9243,9 @@
       <c r="C629" t="n">
         <v>6</v>
       </c>
+      <c r="D629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -7368,6 +9257,9 @@
       <c r="C630" t="n">
         <v>6</v>
       </c>
+      <c r="D630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -7379,6 +9271,9 @@
       <c r="C631" t="n">
         <v>6</v>
       </c>
+      <c r="D631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -7390,6 +9285,9 @@
       <c r="C632" t="n">
         <v>6</v>
       </c>
+      <c r="D632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -7401,6 +9299,9 @@
       <c r="C633" t="n">
         <v>6</v>
       </c>
+      <c r="D633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -7412,6 +9313,9 @@
       <c r="C634" t="n">
         <v>6</v>
       </c>
+      <c r="D634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -7423,6 +9327,9 @@
       <c r="C635" t="n">
         <v>6</v>
       </c>
+      <c r="D635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -7434,6 +9341,9 @@
       <c r="C636" t="n">
         <v>6</v>
       </c>
+      <c r="D636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -7445,6 +9355,9 @@
       <c r="C637" t="n">
         <v>6</v>
       </c>
+      <c r="D637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -7456,6 +9369,9 @@
       <c r="C638" t="n">
         <v>6</v>
       </c>
+      <c r="D638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -7467,6 +9383,9 @@
       <c r="C639" t="n">
         <v>6</v>
       </c>
+      <c r="D639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -7478,6 +9397,9 @@
       <c r="C640" t="n">
         <v>6</v>
       </c>
+      <c r="D640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -7489,6 +9411,9 @@
       <c r="C641" t="n">
         <v>6</v>
       </c>
+      <c r="D641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -7500,6 +9425,9 @@
       <c r="C642" t="n">
         <v>6</v>
       </c>
+      <c r="D642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -7511,6 +9439,9 @@
       <c r="C643" t="n">
         <v>6</v>
       </c>
+      <c r="D643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -7522,6 +9453,9 @@
       <c r="C644" t="n">
         <v>6</v>
       </c>
+      <c r="D644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -7533,6 +9467,9 @@
       <c r="C645" t="n">
         <v>6</v>
       </c>
+      <c r="D645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -7544,6 +9481,9 @@
       <c r="C646" t="n">
         <v>6</v>
       </c>
+      <c r="D646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -7555,6 +9495,9 @@
       <c r="C647" t="n">
         <v>6</v>
       </c>
+      <c r="D647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -7566,6 +9509,9 @@
       <c r="C648" t="n">
         <v>6</v>
       </c>
+      <c r="D648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -7577,6 +9523,9 @@
       <c r="C649" t="n">
         <v>6</v>
       </c>
+      <c r="D649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -7588,6 +9537,9 @@
       <c r="C650" t="n">
         <v>6</v>
       </c>
+      <c r="D650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -7599,6 +9551,9 @@
       <c r="C651" t="n">
         <v>6</v>
       </c>
+      <c r="D651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -7610,6 +9565,9 @@
       <c r="C652" t="n">
         <v>6</v>
       </c>
+      <c r="D652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -7621,6 +9579,9 @@
       <c r="C653" t="n">
         <v>6</v>
       </c>
+      <c r="D653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -7632,6 +9593,9 @@
       <c r="C654" t="n">
         <v>6</v>
       </c>
+      <c r="D654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -7643,6 +9607,9 @@
       <c r="C655" t="n">
         <v>6</v>
       </c>
+      <c r="D655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -7654,6 +9621,9 @@
       <c r="C656" t="n">
         <v>6</v>
       </c>
+      <c r="D656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -7665,6 +9635,9 @@
       <c r="C657" t="n">
         <v>6</v>
       </c>
+      <c r="D657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -7676,6 +9649,9 @@
       <c r="C658" t="n">
         <v>6</v>
       </c>
+      <c r="D658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -7687,6 +9663,9 @@
       <c r="C659" t="n">
         <v>6</v>
       </c>
+      <c r="D659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -7698,6 +9677,9 @@
       <c r="C660" t="n">
         <v>6</v>
       </c>
+      <c r="D660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -7709,6 +9691,9 @@
       <c r="C661" t="n">
         <v>6</v>
       </c>
+      <c r="D661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -7720,6 +9705,9 @@
       <c r="C662" t="n">
         <v>6</v>
       </c>
+      <c r="D662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -7731,6 +9719,9 @@
       <c r="C663" t="n">
         <v>6</v>
       </c>
+      <c r="D663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -7742,6 +9733,9 @@
       <c r="C664" t="n">
         <v>6</v>
       </c>
+      <c r="D664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -7753,6 +9747,9 @@
       <c r="C665" t="n">
         <v>6</v>
       </c>
+      <c r="D665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -7764,6 +9761,9 @@
       <c r="C666" t="n">
         <v>6</v>
       </c>
+      <c r="D666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -7775,6 +9775,9 @@
       <c r="C667" t="n">
         <v>6</v>
       </c>
+      <c r="D667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -7786,6 +9789,9 @@
       <c r="C668" t="n">
         <v>6</v>
       </c>
+      <c r="D668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -7797,6 +9803,9 @@
       <c r="C669" t="n">
         <v>6</v>
       </c>
+      <c r="D669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -7808,6 +9817,9 @@
       <c r="C670" t="n">
         <v>6</v>
       </c>
+      <c r="D670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -7819,6 +9831,9 @@
       <c r="C671" t="n">
         <v>6</v>
       </c>
+      <c r="D671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -7830,6 +9845,9 @@
       <c r="C672" t="n">
         <v>6</v>
       </c>
+      <c r="D672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -7841,6 +9859,9 @@
       <c r="C673" t="n">
         <v>6</v>
       </c>
+      <c r="D673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -7852,6 +9873,9 @@
       <c r="C674" t="n">
         <v>6</v>
       </c>
+      <c r="D674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -7863,6 +9887,9 @@
       <c r="C675" t="n">
         <v>6</v>
       </c>
+      <c r="D675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -7874,6 +9901,9 @@
       <c r="C676" t="n">
         <v>6</v>
       </c>
+      <c r="D676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -7885,6 +9915,9 @@
       <c r="C677" t="n">
         <v>6</v>
       </c>
+      <c r="D677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -7896,6 +9929,9 @@
       <c r="C678" t="n">
         <v>6</v>
       </c>
+      <c r="D678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -7907,6 +9943,9 @@
       <c r="C679" t="n">
         <v>6</v>
       </c>
+      <c r="D679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -7918,6 +9957,9 @@
       <c r="C680" t="n">
         <v>6</v>
       </c>
+      <c r="D680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -7929,6 +9971,9 @@
       <c r="C681" t="n">
         <v>6</v>
       </c>
+      <c r="D681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -7940,6 +9985,9 @@
       <c r="C682" t="n">
         <v>6</v>
       </c>
+      <c r="D682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -7951,6 +9999,9 @@
       <c r="C683" t="n">
         <v>6</v>
       </c>
+      <c r="D683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -7962,6 +10013,9 @@
       <c r="C684" t="n">
         <v>6</v>
       </c>
+      <c r="D684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -7973,6 +10027,9 @@
       <c r="C685" t="n">
         <v>6</v>
       </c>
+      <c r="D685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -7984,6 +10041,9 @@
       <c r="C686" t="n">
         <v>6</v>
       </c>
+      <c r="D686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -7995,6 +10055,9 @@
       <c r="C687" t="n">
         <v>6</v>
       </c>
+      <c r="D687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -8006,6 +10069,9 @@
       <c r="C688" t="n">
         <v>6</v>
       </c>
+      <c r="D688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -8017,6 +10083,9 @@
       <c r="C689" t="n">
         <v>6</v>
       </c>
+      <c r="D689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -8028,6 +10097,9 @@
       <c r="C690" t="n">
         <v>6</v>
       </c>
+      <c r="D690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -8039,6 +10111,9 @@
       <c r="C691" t="n">
         <v>6</v>
       </c>
+      <c r="D691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -8050,6 +10125,9 @@
       <c r="C692" t="n">
         <v>6</v>
       </c>
+      <c r="D692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -8061,6 +10139,9 @@
       <c r="C693" t="n">
         <v>6</v>
       </c>
+      <c r="D693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -8072,6 +10153,9 @@
       <c r="C694" t="n">
         <v>6</v>
       </c>
+      <c r="D694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -8083,6 +10167,9 @@
       <c r="C695" t="n">
         <v>6</v>
       </c>
+      <c r="D695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -8094,6 +10181,9 @@
       <c r="C696" t="n">
         <v>6</v>
       </c>
+      <c r="D696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -8105,6 +10195,9 @@
       <c r="C697" t="n">
         <v>6</v>
       </c>
+      <c r="D697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -8115,6 +10208,9 @@
       </c>
       <c r="C698" t="n">
         <v>6</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
